--- a/WhiteCane/Assets/Xlsx/NarrationData.xlsx
+++ b/WhiteCane/Assets/Xlsx/NarrationData.xlsx
@@ -42,14 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4번 나레이션입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2번 나레이션입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Test_Narration_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,11 +55,19 @@
     <t>Test_Narration_04</t>
   </si>
   <si>
-    <t>1번 나레이션입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3번 나레이션입니다</t>
+    <t>씬 시작 멘트 입니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>narration data에 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3번 나레이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4번 나레이션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,7 +412,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -445,35 +445,35 @@
     </row>
     <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
